--- a/src/test/java/techproed/resources/Capitals.xlsx
+++ b/src/test/java/techproed/resources/Capitals.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Masaüstü\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -85,12 +85,16 @@
   </si>
   <si>
     <t>Oslo</t>
+  </si>
+  <si>
+    <t>NUFUS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -352,7 +356,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -367,6 +371,9 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s" s="0">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -375,6 +382,9 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="n" s="0">
+        <v>712816.0</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -383,6 +393,9 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="n" s="0">
+        <v>2161000.0</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -391,6 +404,9 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="n" s="0">
+        <v>8982000.0</v>
+      </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -398,6 +414,9 @@
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>5663000.0</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
